--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.menu.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6E931-86B8-2146-9572-67DA29AE0AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE01CB5-7A4A-7848-B323-49DCF2B8A3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68340" yWindow="-6360" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="53940" yWindow="-4640" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -142,9 +145,6 @@
     <t>safety</t>
   </si>
   <si>
-    <t>/rbac/permission</t>
-  </si>
-  <si>
     <t>权限管理</t>
   </si>
   <si>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>lock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rbac/permission</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +825,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -937,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>28</v>
@@ -970,13 +974,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>33</v>
@@ -988,7 +992,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
@@ -1003,16 +1007,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="19"/>
@@ -1036,13 +1040,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>34</v>
@@ -1069,16 +1073,16 @@
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="19"/>
@@ -1087,14 +1091,14 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="15" t="str">
         <f>A$9</f>
         <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="9">
         <v>1105</v>
@@ -1103,16 +1107,16 @@
         <v>3</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="I10" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="18"/>
@@ -1121,14 +1125,14 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="15" t="str">
         <f t="shared" ref="B11:B14" si="0">A$9</f>
         <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9">
         <v>1110</v>
@@ -1137,16 +1141,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="18"/>
@@ -1155,14 +1159,14 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9">
         <v>1115</v>
@@ -1171,16 +1175,16 @@
         <v>3</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="I12" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="18"/>
@@ -1189,14 +1193,14 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9">
         <v>1120</v>
@@ -1205,16 +1209,16 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="18"/>
@@ -1223,14 +1227,14 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9">
         <v>1125</v>
@@ -1239,16 +1243,16 @@
         <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="I14" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="18"/>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.menu.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE01CB5-7A4A-7848-B323-49DCF2B8A3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C66C4C-16F4-BA42-BA38-788F382D8585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53940" yWindow="-4640" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63120" yWindow="-4840" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -169,102 +169,29 @@
     <t>zero.rbac.permission</t>
   </si>
   <si>
-    <t>42da948b-6261-4247-9db5-091b36bb0a67</t>
-  </si>
-  <si>
-    <t>NAV-MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/resource?target=/rbac/permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f0fff142-c505-46f3-9ce8-cbc8dcf527bd</t>
   </si>
   <si>
-    <t>通用权限（角色）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/role?target=/rbac/permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>af69eb93-6d2c-46a3-960b-8ab980c649e0</t>
   </si>
   <si>
-    <t>特定权限（用户）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/authority/user?target=/rbac/permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b8686c0e-c1e0-45b4-be31-ba2a90ef112e</t>
-  </si>
-  <si>
     <t>权限检验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>graphic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/graphic?target=/rbac/permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6fddf9f8-97d4-45d9-9242-b304054f16ee</t>
-  </si>
-  <si>
     <t>高级定制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/research?target=/rbac/permission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.authority.resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.authority.role</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zero.authority.user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.authority.graphic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.authority.research</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -284,8 +211,92 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/rbac/permission</t>
+    <t>DEV-MENU</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限定制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.rbac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.rbac.resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety-certificate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-server</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.rbac.graphic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.rbac.research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/graphic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>507950b6-e5af-42df-8ee2-fe2f60efbb3c</t>
+  </si>
+  <si>
+    <t>4580cb6d-cf7e-43a9-a718-12a45ed3f05e</t>
+  </si>
+  <si>
+    <t>a1ec32d7-dccc-4ad6-86d2-ea8b864af822</t>
+  </si>
+  <si>
+    <t>b6ab9c65-166a-46e8-8a74-fd35f881c70e</t>
   </si>
 </sst>
 </file>
@@ -446,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,7 +512,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:M14"/>
+  <dimension ref="A2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -851,16 +861,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -941,13 +951,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>28</v>
@@ -970,7 +980,7 @@
       <c r="D6" s="9">
         <v>1005</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -980,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>33</v>
@@ -1003,7 +1013,7 @@
       <c r="D7" s="9">
         <v>1010</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -1036,7 +1046,7 @@
       <c r="D8" s="9">
         <v>1015</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -1046,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>34</v>
@@ -1069,7 +1079,7 @@
       <c r="D9" s="9">
         <v>1020</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -1081,8 +1091,8 @@
       <c r="H9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>74</v>
+      <c r="I9" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="19"/>
@@ -1094,29 +1104,29 @@
         <v>44</v>
       </c>
       <c r="B10" s="15" t="str">
-        <f>A$9</f>
+        <f t="shared" ref="B10:B15" si="0">A$9</f>
         <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>45</v>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="9">
-        <v>1105</v>
+        <v>1005</v>
       </c>
       <c r="E10" s="20">
         <v>3</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="18"/>
@@ -1125,32 +1135,32 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="15" t="str">
-        <f t="shared" ref="B11:B14" si="0">A$9</f>
+        <f t="shared" si="0"/>
         <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>45</v>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="9">
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="E11" s="20">
         <v>3</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="18"/>
@@ -1159,105 +1169,130 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1115</v>
-      </c>
-      <c r="E12" s="20">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6">
+        <v>90000</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1120</v>
-      </c>
-      <c r="E13" s="20">
-        <v>3</v>
+        <f>A$12</f>
+        <v>507950b6-e5af-42df-8ee2-fe2f60efbb3c</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1005</v>
+      </c>
+      <c r="E13" s="22">
+        <v>2</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>45</v>
+        <f t="shared" ref="B14:B15" si="1">A$12</f>
+        <v>507950b6-e5af-42df-8ee2-fe2f60efbb3c</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="9">
-        <v>1125</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3</v>
+        <v>1010</v>
+      </c>
+      <c r="E14" s="22">
+        <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="18"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>507950b6-e5af-42df-8ee2-fe2f60efbb3c</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E15" s="22">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.menu.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C66C4C-16F4-BA42-BA38-788F382D8585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E47860-0FED-B54F-B20C-33EA6ADEF239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63120" yWindow="-4840" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>profie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>safety</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,10 @@
   </si>
   <si>
     <t>b6ab9c65-166a-46e8-8a74-fd35f881c70e</t>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1104,7 +1104,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="15" t="str">
-        <f t="shared" ref="B10:B15" si="0">A$9</f>
+        <f t="shared" ref="B10:B11" si="0">A$9</f>
         <v>bbee042a-7ddb-4f1c-a91a-1b35eba9567d</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1123,7 +1123,7 @@
         <v>62</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>69</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="15" t="str">
         <f>A$12</f>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="15" t="str">
         <f t="shared" ref="B14:B15" si="1">A$12</f>
@@ -1250,7 +1250,7 @@
         <v>47</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>67</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1284,7 +1284,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>68</v>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.menu.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E47860-0FED-B54F-B20C-33EA6ADEF239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDD99EA-128A-E545-97FD-56EFE64A17E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63120" yWindow="-4840" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22380" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -267,14 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/authority/role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>safety</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +288,14 @@
   </si>
   <si>
     <t>profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rbac/authority-role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rbac/authority-user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
   <dimension ref="A2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1123,10 +1123,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="18"/>
@@ -1160,7 +1160,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="18"/>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="15" t="str">
         <f>A$12</f>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="15" t="str">
         <f t="shared" ref="B14:B15" si="1">A$12</f>
@@ -1250,7 +1250,7 @@
         <v>47</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>67</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1284,7 +1284,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>68</v>
